--- a/english/dimensionality_reduction/dataset.xlsx
+++ b/english/dimensionality_reduction/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/can/Documents/Git/work/geo_ml/new_algorithm/english/dimensionality_reduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE569CD7-B16C-C242-9897-512BFB889DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824F3FFB-FA66-5C4A-B6FC-21B745C157B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1940" windowWidth="27640" windowHeight="16540" xr2:uid="{4DAD17F9-CAFD-2244-A4B0-90AF45525B11}"/>
+    <workbookView xWindow="1160" yWindow="1460" windowWidth="27640" windowHeight="16540" xr2:uid="{4DAD17F9-CAFD-2244-A4B0-90AF45525B11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,37 +39,37 @@
     <t>TRUE VALUE</t>
   </si>
   <si>
-    <t>SiO2 (wt. %)</t>
+    <t>SiO2</t>
   </si>
   <si>
-    <t>TiO2 (wt. %)</t>
+    <t>TiO2</t>
   </si>
   <si>
-    <t>Al2O3 (wt. %)</t>
+    <t>Al2O3</t>
   </si>
   <si>
-    <t>Cr2O3 (wt. %)</t>
+    <t>Cr2O3</t>
   </si>
   <si>
-    <t>FeO (wt. %)</t>
+    <t>FeO</t>
   </si>
   <si>
-    <t>MnO (wt. %)</t>
+    <t>MnO</t>
   </si>
   <si>
-    <t>MgO (wt. %)</t>
+    <t>MgO</t>
   </si>
   <si>
-    <t>CaO (wt. %)</t>
+    <t>CaO</t>
   </si>
   <si>
-    <t>Na2O  (wt. %)</t>
+    <t xml:space="preserve">Na2O </t>
   </si>
   <si>
-    <t>IV (Al)</t>
+    <t>IV</t>
   </si>
   <si>
-    <t>H2O (wt. %)</t>
+    <t>H2O</t>
   </si>
 </sst>
 </file>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BAE1A5-6AE6-0B4E-AA15-6A93EDA4FE2F}">
   <dimension ref="A1:L2273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection sqref="A1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
